--- a/upload/procedimentos-obstetricos-2025.xlsx
+++ b/upload/procedimentos-obstetricos-2025.xlsx
@@ -1,37 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29421"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C014846-406C-477E-9B75-CD81F6E58DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m10428324\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="8">
   <si>
     <t>unidade</t>
   </si>
@@ -60,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -118,7 +106,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -134,7 +122,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -146,7 +134,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -193,23 +181,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -245,23 +216,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -413,11 +367,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -564,16 +518,16 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2">
         <v>2025</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>166</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -584,10 +538,10 @@
         <v>2025</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -598,7 +552,7 @@
         <v>2025</v>
       </c>
       <c r="C13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>159</v>
@@ -612,10 +566,10 @@
         <v>2025</v>
       </c>
       <c r="C14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -626,10 +580,10 @@
         <v>2025</v>
       </c>
       <c r="C15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -640,10 +594,10 @@
         <v>2025</v>
       </c>
       <c r="C16" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -654,10 +608,10 @@
         <v>2025</v>
       </c>
       <c r="C17" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -668,10 +622,10 @@
         <v>2025</v>
       </c>
       <c r="C18" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>284</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -682,38 +636,38 @@
         <v>2025</v>
       </c>
       <c r="C19" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2">
         <v>2025</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>128</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2">
         <v>2025</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>122</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -724,10 +678,10 @@
         <v>2025</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>183</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -738,10 +692,10 @@
         <v>2025</v>
       </c>
       <c r="C23" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>161</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -752,10 +706,10 @@
         <v>2025</v>
       </c>
       <c r="C24" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>162</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -766,10 +720,10 @@
         <v>2025</v>
       </c>
       <c r="C25" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>136</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -780,10 +734,10 @@
         <v>2025</v>
       </c>
       <c r="C26" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -794,10 +748,10 @@
         <v>2025</v>
       </c>
       <c r="C27" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>166</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -808,52 +762,52 @@
         <v>2025</v>
       </c>
       <c r="C28" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2">
         <v>2025</v>
       </c>
       <c r="C29" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>309</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" s="2">
         <v>2025</v>
       </c>
       <c r="C30" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>301</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" s="2">
         <v>2025</v>
       </c>
       <c r="C31" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>372</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -864,10 +818,10 @@
         <v>2025</v>
       </c>
       <c r="C32" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>368</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -878,10 +832,10 @@
         <v>2025</v>
       </c>
       <c r="C33" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>368</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -892,10 +846,10 @@
         <v>2025</v>
       </c>
       <c r="C34" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -906,10 +860,10 @@
         <v>2025</v>
       </c>
       <c r="C35" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>311</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -920,10 +874,10 @@
         <v>2025</v>
       </c>
       <c r="C36" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>313</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -934,246 +888,69 @@
         <v>2025</v>
       </c>
       <c r="C37" s="2">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C38" s="2">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C39" s="2">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C40" s="2">
         <v>9</v>
       </c>
-      <c r="D37">
+      <c r="D40">
         <v>308</v>
       </c>
     </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>322</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010001F758B6196B0F49AC2B800DFBC943B3" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="4cb996f52a9a15401b375abb1969541e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee1baa49-d775-490f-95a0-0be6b1b30548" xmlns:ns3="0b0293c2-191e-4088-96c9-a881010ce1ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba3b9a98b1bf172f667c1109616c689a" ns2:_="" ns3:_="">
-    <xsd:import namespace="ee1baa49-d775-490f-95a0-0be6b1b30548"/>
-    <xsd:import namespace="0b0293c2-191e-4088-96c9-a881010ce1ad"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ee1baa49-d775-490f-95a0-0be6b1b30548" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="7af98bd1-2354-4ddb-b15f-75f5f3c88b53" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0b0293c2-191e-4088-96c9-a881010ce1ad" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="17" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{31baf46e-eed5-4ebd-ba89-72a3afe19d19}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="0b0293c2-191e-4088-96c9-a881010ce1ad">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee1baa49-d775-490f-95a0-0be6b1b30548">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0b0293c2-191e-4088-96c9-a881010ce1ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4EAAC1-8F74-44E2-9717-D16E97AA7571}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E75281A3-1498-4A70-A8A2-D85EF443B965}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B6E190B-F0B6-49C9-8680-732410215D31}"/>
 </file>
--- a/upload/procedimentos-obstetricos-2025.xlsx
+++ b/upload/procedimentos-obstetricos-2025.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="50">
   <si>
     <t>unidade</t>
   </si>
@@ -34,6 +34,36 @@
   </si>
   <si>
     <t>qtde_procedimentos</t>
+  </si>
+  <si>
+    <t>HJK</t>
+  </si>
+  <si>
+    <t>CESAREAS</t>
+  </si>
+  <si>
+    <t>CIRURGIA GINECOLÓGICA</t>
+  </si>
+  <si>
+    <t>CURETAGEM</t>
+  </si>
+  <si>
+    <t>PARTO GEMELAR CESARIANA</t>
+  </si>
+  <si>
+    <t>PARTO GEMELAR NORMAL</t>
+  </si>
+  <si>
+    <t>PARTO NORMAL</t>
+  </si>
+  <si>
+    <t>FORCEPS NORMAL</t>
+  </si>
+  <si>
+    <t>FORCEPS CESAREA</t>
+  </si>
+  <si>
+    <t>HRAD</t>
   </si>
   <si>
     <t>HRJP</t>
@@ -58,9 +88,6 @@
   </si>
   <si>
     <t>OPERAÇÃO CESARIANA EM GESTAÇÃO DE ALTO RISCO</t>
-  </si>
-  <si>
-    <t>PARTO NORMAL</t>
   </si>
   <si>
     <t>PARTO NORMAL EM CENTRO DE PARTO NORMAL (CPN)</t>
@@ -467,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E331"/>
+  <dimension ref="A1:E436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="A333" sqref="A333:XFD333"/>
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="A438" sqref="A438:XFD438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -505,8 +532,8 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2">
-        <v>1</v>
+      <c r="E2">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -522,8 +549,8 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2">
-        <v>1</v>
+      <c r="E3">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -539,8 +566,8 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2">
-        <v>1</v>
+      <c r="E4">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -556,8 +583,8 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2">
-        <v>11</v>
+      <c r="E5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -573,8 +600,8 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2">
-        <v>23</v>
+      <c r="E6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -590,8 +617,8 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2">
-        <v>16</v>
+      <c r="E7">
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -602,13 +629,13 @@
         <v>2025</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -619,13 +646,13 @@
         <v>2025</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2">
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -636,13 +663,13 @@
         <v>2025</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -653,13 +680,13 @@
         <v>2025</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -670,13 +697,13 @@
         <v>2025</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -690,10 +717,10 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -704,13 +731,13 @@
         <v>2025</v>
       </c>
       <c r="C14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -721,13 +748,13 @@
         <v>2025</v>
       </c>
       <c r="C15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -738,12 +765,12 @@
         <v>2025</v>
       </c>
       <c r="C16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="2">
+        <v>9</v>
+      </c>
+      <c r="E16">
         <v>1</v>
       </c>
     </row>
@@ -755,13 +782,13 @@
         <v>2025</v>
       </c>
       <c r="C17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="2">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -772,13 +799,13 @@
         <v>2025</v>
       </c>
       <c r="C18" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="2">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -789,13 +816,13 @@
         <v>2025</v>
       </c>
       <c r="C19" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -806,13 +833,13 @@
         <v>2025</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="2">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -823,13 +850,13 @@
         <v>2025</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="2">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -840,13 +867,13 @@
         <v>2025</v>
       </c>
       <c r="C22" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="2">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -857,13 +884,13 @@
         <v>2025</v>
       </c>
       <c r="C23" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -874,13 +901,13 @@
         <v>2025</v>
       </c>
       <c r="C24" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -891,13 +918,13 @@
         <v>2025</v>
       </c>
       <c r="C25" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -908,13 +935,13 @@
         <v>2025</v>
       </c>
       <c r="C26" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -925,13 +952,13 @@
         <v>2025</v>
       </c>
       <c r="C27" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -942,13 +969,13 @@
         <v>2025</v>
       </c>
       <c r="C28" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="2">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -959,13 +986,13 @@
         <v>2025</v>
       </c>
       <c r="C29" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -976,13 +1003,13 @@
         <v>2025</v>
       </c>
       <c r="C30" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="2">
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -993,13 +1020,13 @@
         <v>2025</v>
       </c>
       <c r="C31" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="2">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1010,13 +1037,13 @@
         <v>2025</v>
       </c>
       <c r="C32" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="2">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1027,13 +1054,13 @@
         <v>2025</v>
       </c>
       <c r="C33" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="2">
-        <v>45</v>
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1044,13 +1071,13 @@
         <v>2025</v>
       </c>
       <c r="C34" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="2">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1061,13 +1088,13 @@
         <v>2025</v>
       </c>
       <c r="C35" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="2">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1078,13 +1105,13 @@
         <v>2025</v>
       </c>
       <c r="C36" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="2">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1095,12 +1122,12 @@
         <v>2025</v>
       </c>
       <c r="C37" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="2">
+        <v>9</v>
+      </c>
+      <c r="E37">
         <v>2</v>
       </c>
     </row>
@@ -1112,12 +1139,12 @@
         <v>2025</v>
       </c>
       <c r="C38" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="2">
+        <v>10</v>
+      </c>
+      <c r="E38">
         <v>1</v>
       </c>
     </row>
@@ -1129,13 +1156,13 @@
         <v>2025</v>
       </c>
       <c r="C39" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="2">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1146,13 +1173,13 @@
         <v>2025</v>
       </c>
       <c r="C40" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="2">
         <v>6</v>
+      </c>
+      <c r="E40">
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1163,13 +1190,13 @@
         <v>2025</v>
       </c>
       <c r="C41" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1180,13 +1207,13 @@
         <v>2025</v>
       </c>
       <c r="C42" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="2">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1197,13 +1224,13 @@
         <v>2025</v>
       </c>
       <c r="C43" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1214,13 +1241,13 @@
         <v>2025</v>
       </c>
       <c r="C44" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="2">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="E44">
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1231,13 +1258,13 @@
         <v>2025</v>
       </c>
       <c r="C45" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="2">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1248,13 +1275,13 @@
         <v>2025</v>
       </c>
       <c r="C46" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="2">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1265,13 +1292,13 @@
         <v>2025</v>
       </c>
       <c r="C47" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="2">
-        <v>52</v>
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1282,13 +1309,13 @@
         <v>2025</v>
       </c>
       <c r="C48" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="2">
         <v>9</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1299,13 +1326,13 @@
         <v>2025</v>
       </c>
       <c r="C49" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="2">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E49">
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1316,13 +1343,13 @@
         <v>2025</v>
       </c>
       <c r="C50" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1333,13 +1360,13 @@
         <v>2025</v>
       </c>
       <c r="C51" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="2">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1350,13 +1377,13 @@
         <v>2025</v>
       </c>
       <c r="C52" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="2">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1367,13 +1394,13 @@
         <v>2025</v>
       </c>
       <c r="C53" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="2">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1384,13 +1411,13 @@
         <v>2025</v>
       </c>
       <c r="C54" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="2">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="E54">
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1401,13 +1428,13 @@
         <v>2025</v>
       </c>
       <c r="C55" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1418,13 +1445,13 @@
         <v>2025</v>
       </c>
       <c r="C56" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="2">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E56">
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1435,13 +1462,13 @@
         <v>2025</v>
       </c>
       <c r="C57" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="2">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1452,13 +1479,13 @@
         <v>2025</v>
       </c>
       <c r="C58" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="2">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1469,477 +1496,477 @@
         <v>2025</v>
       </c>
       <c r="C59" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="2">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="E59">
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B60" s="2">
         <v>2025</v>
       </c>
       <c r="C60" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="2">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="E60">
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B61" s="2">
         <v>2025</v>
       </c>
       <c r="C61" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="2">
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="E61">
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B62" s="2">
         <v>2025</v>
       </c>
       <c r="C62" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="2">
-        <v>56</v>
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B63" s="2">
         <v>2025</v>
       </c>
       <c r="C63" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="2">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B64" s="2">
         <v>2025</v>
       </c>
       <c r="C64" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
-      </c>
-      <c r="E64" s="2">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E64">
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B65" s="2">
         <v>2025</v>
       </c>
       <c r="C65" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>25</v>
-      </c>
-      <c r="E65" s="2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B66" s="2">
         <v>2025</v>
       </c>
       <c r="C66" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" s="2">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="E66">
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B67" s="2">
         <v>2025</v>
       </c>
       <c r="C67" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" s="2">
+        <v>8</v>
+      </c>
+      <c r="E67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B68" s="2">
         <v>2025</v>
       </c>
       <c r="C68" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="2">
+        <v>9</v>
+      </c>
+      <c r="E68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B69" s="2">
         <v>2025</v>
       </c>
       <c r="C69" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>21</v>
-      </c>
-      <c r="E69" s="2">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E69">
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B70" s="2">
         <v>2025</v>
       </c>
       <c r="C70" s="2">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
         <v>6</v>
       </c>
-      <c r="D70" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="2">
-        <v>4</v>
+      <c r="E70">
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B71" s="2">
         <v>2025</v>
       </c>
       <c r="C71" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="2">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="E71">
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B72" s="2">
         <v>2025</v>
       </c>
       <c r="C72" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="2">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B73" s="2">
         <v>2025</v>
       </c>
       <c r="C73" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="2">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="E73">
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B74" s="2">
         <v>2025</v>
       </c>
       <c r="C74" s="2">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
         <v>6</v>
       </c>
-      <c r="D74" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="2">
-        <v>47</v>
+      <c r="E74">
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B75" s="2">
         <v>2025</v>
       </c>
       <c r="C75" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="2">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="E75">
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B76" s="2">
         <v>2025</v>
       </c>
       <c r="C76" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
-      </c>
-      <c r="E76" s="2">
+        <v>9</v>
+      </c>
+      <c r="E76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B77" s="2">
         <v>2025</v>
       </c>
       <c r="C77" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
-      </c>
-      <c r="E77" s="2">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E77">
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B78" s="2">
         <v>2025</v>
       </c>
       <c r="C78" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" s="2">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="E78">
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B79" s="2">
         <v>2025</v>
       </c>
       <c r="C79" s="2">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
         <v>7</v>
       </c>
-      <c r="D79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="2">
-        <v>3</v>
+      <c r="E79">
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B80" s="2">
         <v>2025</v>
       </c>
       <c r="C80" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="2">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B81" s="2">
         <v>2025</v>
       </c>
       <c r="C81" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
-      </c>
-      <c r="E81" s="2">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B82" s="2">
         <v>2025</v>
       </c>
       <c r="C82" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="2">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="E82">
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B83" s="2">
         <v>2025</v>
       </c>
       <c r="C83" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="2">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="E83">
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B84" s="2">
         <v>2025</v>
       </c>
       <c r="C84" s="2">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s">
         <v>7</v>
       </c>
-      <c r="D84" t="s">
-        <v>12</v>
-      </c>
-      <c r="E84" s="2">
-        <v>29</v>
+      <c r="E84">
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B85" s="2">
         <v>2025</v>
       </c>
       <c r="C85" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="2">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="E85">
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B86" s="2">
         <v>2025</v>
       </c>
       <c r="C86" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
-      </c>
-      <c r="E86" s="2">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E86">
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B87" s="2">
         <v>2025</v>
@@ -1948,66 +1975,66 @@
         <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87" s="2">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B88" s="2">
         <v>2025</v>
       </c>
       <c r="C88" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
-      </c>
-      <c r="E88" s="2">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="E88">
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B89" s="2">
         <v>2025</v>
       </c>
       <c r="C89" s="2">
+        <v>7</v>
+      </c>
+      <c r="D89" t="s">
         <v>8</v>
       </c>
-      <c r="D89" t="s">
-        <v>28</v>
-      </c>
-      <c r="E89" s="2">
-        <v>1</v>
+      <c r="E89">
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B90" s="2">
         <v>2025</v>
       </c>
       <c r="C90" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>6</v>
-      </c>
-      <c r="E90" s="2">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E90">
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B91" s="2">
         <v>2025</v>
@@ -2016,15 +2043,15 @@
         <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>29</v>
-      </c>
-      <c r="E91" s="2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B92" s="2">
         <v>2025</v>
@@ -2033,15 +2060,15 @@
         <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
-      </c>
-      <c r="E92" s="2">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="E92">
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B93" s="2">
         <v>2025</v>
@@ -2050,15 +2077,15 @@
         <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>20</v>
-      </c>
-      <c r="E93" s="2">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="E93">
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B94" s="2">
         <v>2025</v>
@@ -2067,4038 +2094,5823 @@
         <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" s="2">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="E94">
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B95" s="2">
         <v>2025</v>
       </c>
       <c r="C95" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" s="2">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="E95">
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B96" s="2">
         <v>2025</v>
       </c>
       <c r="C96" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>17</v>
-      </c>
-      <c r="E96" s="2">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="E96">
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B97" s="2">
         <v>2025</v>
       </c>
       <c r="C97" s="2">
+        <v>9</v>
+      </c>
+      <c r="D97" t="s">
         <v>8</v>
       </c>
-      <c r="D97" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" s="2">
-        <v>25</v>
+      <c r="E97">
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B98" s="2">
         <v>2025</v>
       </c>
       <c r="C98" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
         <v>11</v>
       </c>
-      <c r="E98" s="2">
-        <v>18</v>
+      <c r="E98">
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B99" s="2">
         <v>2025</v>
       </c>
       <c r="C99" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" s="2">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="E99">
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B100" s="2">
         <v>2025</v>
       </c>
       <c r="C100" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
-      </c>
-      <c r="E100" s="2">
-        <v>42</v>
+        <v>7</v>
+      </c>
+      <c r="E100">
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B101" s="2">
         <v>2025</v>
       </c>
       <c r="C101" s="2">
+        <v>10</v>
+      </c>
+      <c r="D101" t="s">
         <v>8</v>
       </c>
-      <c r="D101" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" s="2">
-        <v>3</v>
+      <c r="E101">
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B102" s="2">
         <v>2025</v>
       </c>
       <c r="C102" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>15</v>
-      </c>
-      <c r="E102" s="2">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E102">
+        <v>47</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B103" s="2">
         <v>2025</v>
       </c>
       <c r="C103" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D103" t="s">
-        <v>25</v>
-      </c>
-      <c r="E103" s="2">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="E103">
+        <v>54</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B104" s="2">
         <v>2025</v>
       </c>
       <c r="C104" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>22</v>
-      </c>
-      <c r="E104" s="2">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="E104">
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B105" s="2">
         <v>2025</v>
       </c>
       <c r="C105" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>18</v>
-      </c>
-      <c r="E105" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B106" s="2">
         <v>2025</v>
       </c>
       <c r="C106" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E106" s="2">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E106">
+        <v>61</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B107" s="2">
         <v>2025</v>
       </c>
       <c r="C107" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" s="2">
+        <v>16</v>
+      </c>
+      <c r="E107">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B108" s="2">
         <v>2025</v>
       </c>
       <c r="C108" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" s="2">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B109" s="2">
         <v>2025</v>
       </c>
       <c r="C109" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>21</v>
-      </c>
-      <c r="E109" s="2">
+        <v>18</v>
+      </c>
+      <c r="E109">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B110" s="2">
         <v>2025</v>
       </c>
       <c r="C110" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" s="2">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="E110">
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B111" s="2">
         <v>2025</v>
       </c>
       <c r="C111" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111" s="2">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="E111">
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B112" s="2">
         <v>2025</v>
       </c>
       <c r="C112" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" s="2">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="E112">
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B113" s="2">
         <v>2025</v>
       </c>
       <c r="C113" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113" s="2">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="E113">
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B114" s="2">
         <v>2025</v>
       </c>
       <c r="C114" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
-      </c>
-      <c r="E114" s="2">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="E114">
+        <v>47</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B115" s="2">
         <v>2025</v>
       </c>
       <c r="C115" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115" s="2">
+        <v>23</v>
+      </c>
+      <c r="E115">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B116" s="2">
         <v>2025</v>
       </c>
       <c r="C116" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>15</v>
-      </c>
-      <c r="E116" s="2">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="E116">
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B117" s="2">
         <v>2025</v>
       </c>
       <c r="C117" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>16</v>
-      </c>
-      <c r="E117" s="2">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B118" s="2">
         <v>2025</v>
       </c>
       <c r="C118" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>30</v>
-      </c>
-      <c r="E118" s="2">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B119" s="2">
         <v>2025</v>
       </c>
       <c r="C119" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D119" t="s">
         <v>18</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E119">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B120" s="2">
         <v>2025</v>
       </c>
       <c r="C120" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>31</v>
-      </c>
-      <c r="E120" s="2">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E120">
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B121" s="2">
         <v>2025</v>
       </c>
       <c r="C121" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D121" t="s">
-        <v>19</v>
-      </c>
-      <c r="E121" s="2">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B122" s="2">
         <v>2025</v>
       </c>
       <c r="C122" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D122" t="s">
-        <v>7</v>
-      </c>
-      <c r="E122" s="2">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E122">
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B123" s="2">
         <v>2025</v>
       </c>
       <c r="C123" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
-      </c>
-      <c r="E123" s="2">
+        <v>21</v>
+      </c>
+      <c r="E123">
         <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B124" s="2">
         <v>2025</v>
       </c>
       <c r="C124" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
-      </c>
-      <c r="E124" s="2">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="E124">
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B125" s="2">
         <v>2025</v>
       </c>
       <c r="C125" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D125" t="s">
         <v>11</v>
       </c>
-      <c r="E125" s="2">
-        <v>16</v>
+      <c r="E125">
+        <v>33</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B126" s="2">
         <v>2025</v>
       </c>
       <c r="C126" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>12</v>
-      </c>
-      <c r="E126" s="2">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="E126">
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B127" s="2">
         <v>2025</v>
       </c>
       <c r="C127" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
-      </c>
-      <c r="E127" s="2">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="E127">
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B128" s="2">
         <v>2025</v>
       </c>
       <c r="C128" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D128" t="s">
-        <v>15</v>
-      </c>
-      <c r="E128" s="2">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B129" s="2">
         <v>2025</v>
       </c>
       <c r="C129" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D129" t="s">
         <v>16</v>
       </c>
-      <c r="E129" s="2">
-        <v>1</v>
+      <c r="E129">
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B130" s="2">
         <v>2025</v>
       </c>
       <c r="C130" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D130" t="s">
-        <v>18</v>
-      </c>
-      <c r="E130" s="2">
+        <v>28</v>
+      </c>
+      <c r="E130">
         <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B131" s="2">
         <v>2025</v>
       </c>
       <c r="C131" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D131" t="s">
-        <v>19</v>
-      </c>
-      <c r="E131" s="2">
-        <v>5</v>
+        <v>29</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B132" s="2">
         <v>2025</v>
       </c>
       <c r="C132" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D132" t="s">
-        <v>7</v>
-      </c>
-      <c r="E132" s="2">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B133" s="2">
         <v>2025</v>
       </c>
       <c r="C133" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D133" t="s">
-        <v>21</v>
-      </c>
-      <c r="E133" s="2">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E133">
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B134" s="2">
         <v>2025</v>
       </c>
       <c r="C134" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
-      </c>
-      <c r="E134" s="2">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B135" s="2">
         <v>2025</v>
       </c>
       <c r="C135" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
-      </c>
-      <c r="E135" s="2">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="E135">
+        <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B136" s="2">
         <v>2025</v>
       </c>
       <c r="C136" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D136" t="s">
-        <v>11</v>
-      </c>
-      <c r="E136" s="2">
+        <v>21</v>
+      </c>
+      <c r="E136">
         <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B137" s="2">
         <v>2025</v>
       </c>
       <c r="C137" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D137" t="s">
-        <v>12</v>
-      </c>
-      <c r="E137" s="2">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="E137">
+        <v>34</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B138" s="2">
         <v>2025</v>
       </c>
       <c r="C138" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D138" t="s">
-        <v>13</v>
-      </c>
-      <c r="E138" s="2">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="E138">
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B139" s="2">
         <v>2025</v>
       </c>
       <c r="C139" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D139" t="s">
-        <v>14</v>
-      </c>
-      <c r="E139" s="2">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="E139">
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B140" s="2">
         <v>2025</v>
       </c>
       <c r="C140" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D140" t="s">
-        <v>15</v>
-      </c>
-      <c r="E140" s="2">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="E140">
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B141" s="2">
         <v>2025</v>
       </c>
       <c r="C141" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D141" t="s">
-        <v>30</v>
-      </c>
-      <c r="E141" s="2">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B142" s="2">
         <v>2025</v>
       </c>
       <c r="C142" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D142" t="s">
-        <v>6</v>
-      </c>
-      <c r="E142" s="2">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B143" s="2">
         <v>2025</v>
       </c>
       <c r="C143" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D143" t="s">
-        <v>33</v>
-      </c>
-      <c r="E143" s="2">
+        <v>29</v>
+      </c>
+      <c r="E143">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B144" s="2">
         <v>2025</v>
       </c>
       <c r="C144" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D144" t="s">
-        <v>7</v>
-      </c>
-      <c r="E144" s="2">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="E144">
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B145" s="2">
         <v>2025</v>
       </c>
       <c r="C145" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D145" t="s">
-        <v>8</v>
-      </c>
-      <c r="E145" s="2">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="E145">
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B146" s="2">
         <v>2025</v>
       </c>
       <c r="C146" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D146" t="s">
-        <v>21</v>
-      </c>
-      <c r="E146" s="2">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B147" s="2">
         <v>2025</v>
       </c>
       <c r="C147" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D147" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147">
         <v>9</v>
-      </c>
-      <c r="E147" s="2">
-        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B148" s="2">
         <v>2025</v>
       </c>
       <c r="C148" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D148" t="s">
-        <v>23</v>
-      </c>
-      <c r="E148" s="2">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B149" s="2">
         <v>2025</v>
       </c>
       <c r="C149" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
-      </c>
-      <c r="E149" s="2">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="E149">
+        <v>22</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B150" s="2">
         <v>2025</v>
       </c>
       <c r="C150" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>11</v>
-      </c>
-      <c r="E150" s="2">
-        <v>7</v>
+        <v>21</v>
+      </c>
+      <c r="E150">
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B151" s="2">
         <v>2025</v>
       </c>
       <c r="C151" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D151" t="s">
-        <v>12</v>
-      </c>
-      <c r="E151" s="2">
-        <v>54</v>
+        <v>22</v>
+      </c>
+      <c r="E151">
+        <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B152" s="2">
         <v>2025</v>
       </c>
       <c r="C152" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D152" t="s">
-        <v>13</v>
-      </c>
-      <c r="E152" s="2">
-        <v>166</v>
+        <v>11</v>
+      </c>
+      <c r="E152">
+        <v>52</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B153" s="2">
         <v>2025</v>
       </c>
       <c r="C153" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D153" t="s">
-        <v>15</v>
-      </c>
-      <c r="E153" s="2">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="E153">
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B154" s="2">
         <v>2025</v>
       </c>
       <c r="C154" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D154" t="s">
-        <v>16</v>
-      </c>
-      <c r="E154" s="2">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="E154">
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B155" s="2">
         <v>2025</v>
       </c>
       <c r="C155" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>34</v>
-      </c>
-      <c r="E155" s="2">
+        <v>31</v>
+      </c>
+      <c r="E155">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B156" s="2">
         <v>2025</v>
       </c>
       <c r="C156" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D156" t="s">
-        <v>30</v>
-      </c>
-      <c r="E156" s="2">
+        <v>27</v>
+      </c>
+      <c r="E156">
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B157" s="2">
         <v>2025</v>
       </c>
       <c r="C157" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D157" t="s">
-        <v>35</v>
-      </c>
-      <c r="E157" s="2">
+        <v>28</v>
+      </c>
+      <c r="E157">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B158" s="2">
         <v>2025</v>
       </c>
       <c r="C158" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D158" t="s">
-        <v>18</v>
-      </c>
-      <c r="E158" s="2">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="E158">
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B159" s="2">
         <v>2025</v>
       </c>
       <c r="C159" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D159" t="s">
-        <v>6</v>
-      </c>
-      <c r="E159" s="2">
+        <v>18</v>
+      </c>
+      <c r="E159">
         <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B160" s="2">
         <v>2025</v>
       </c>
       <c r="C160" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D160" t="s">
-        <v>27</v>
-      </c>
-      <c r="E160" s="2">
+        <v>30</v>
+      </c>
+      <c r="E160">
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B161" s="2">
         <v>2025</v>
       </c>
       <c r="C161" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D161" t="s">
-        <v>33</v>
-      </c>
-      <c r="E161" s="2">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="E161">
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
+        <v>15</v>
+      </c>
+      <c r="B162" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C162" s="2">
+        <v>5</v>
+      </c>
+      <c r="D162" t="s">
         <v>32</v>
       </c>
-      <c r="B162" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C162" s="2">
-        <v>2</v>
-      </c>
-      <c r="D162" t="s">
-        <v>19</v>
-      </c>
-      <c r="E162" s="2">
+      <c r="E162">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B163" s="2">
         <v>2025</v>
       </c>
       <c r="C163" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D163" t="s">
-        <v>7</v>
-      </c>
-      <c r="E163" s="2">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B164" s="2">
         <v>2025</v>
       </c>
       <c r="C164" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D164" t="s">
-        <v>36</v>
-      </c>
-      <c r="E164" s="2">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="E164">
+        <v>24</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B165" s="2">
         <v>2025</v>
       </c>
       <c r="C165" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D165" t="s">
-        <v>8</v>
-      </c>
-      <c r="E165" s="2">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="E165">
+        <v>22</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B166" s="2">
         <v>2025</v>
       </c>
       <c r="C166" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D166" t="s">
-        <v>21</v>
-      </c>
-      <c r="E166" s="2">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="E166">
+        <v>25</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B167" s="2">
         <v>2025</v>
       </c>
       <c r="C167" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
-      </c>
-      <c r="E167" s="2">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="E167">
+        <v>56</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B168" s="2">
         <v>2025</v>
       </c>
       <c r="C168" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D168" t="s">
-        <v>23</v>
-      </c>
-      <c r="E168" s="2">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="E168">
+        <v>12</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B169" s="2">
         <v>2025</v>
       </c>
       <c r="C169" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D169" t="s">
-        <v>17</v>
-      </c>
-      <c r="E169" s="2">
+        <v>33</v>
+      </c>
+      <c r="E169">
         <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B170" s="2">
         <v>2025</v>
       </c>
       <c r="C170" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
-      </c>
-      <c r="E170" s="2">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B171" s="2">
         <v>2025</v>
       </c>
       <c r="C171" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D171" t="s">
-        <v>11</v>
-      </c>
-      <c r="E171" s="2">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B172" s="2">
         <v>2025</v>
       </c>
       <c r="C172" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D172" t="s">
-        <v>12</v>
-      </c>
-      <c r="E172" s="2">
-        <v>46</v>
+        <v>28</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B173" s="2">
         <v>2025</v>
       </c>
       <c r="C173" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D173" t="s">
-        <v>13</v>
-      </c>
-      <c r="E173" s="2">
-        <v>134</v>
+        <v>17</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B174" s="2">
         <v>2025</v>
       </c>
       <c r="C174" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D174" t="s">
-        <v>15</v>
-      </c>
-      <c r="E174" s="2">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B175" s="2">
         <v>2025</v>
       </c>
       <c r="C175" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D175" t="s">
-        <v>16</v>
-      </c>
-      <c r="E175" s="2">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E175">
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B176" s="2">
         <v>2025</v>
       </c>
       <c r="C176" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D176" t="s">
-        <v>18</v>
-      </c>
-      <c r="E176" s="2">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="E176">
+        <v>22</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B177" s="2">
         <v>2025</v>
       </c>
       <c r="C177" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D177" t="s">
-        <v>37</v>
-      </c>
-      <c r="E177" s="2">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="E177">
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B178" s="2">
         <v>2025</v>
       </c>
       <c r="C178" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D178" t="s">
-        <v>33</v>
-      </c>
-      <c r="E178" s="2">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="E178">
+        <v>25</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B179" s="2">
         <v>2025</v>
       </c>
       <c r="C179" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D179" t="s">
-        <v>19</v>
-      </c>
-      <c r="E179" s="2">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="E179">
+        <v>47</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B180" s="2">
         <v>2025</v>
       </c>
       <c r="C180" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D180" t="s">
-        <v>7</v>
-      </c>
-      <c r="E180" s="2">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="E180">
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B181" s="2">
         <v>2025</v>
       </c>
       <c r="C181" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D181" t="s">
-        <v>8</v>
-      </c>
-      <c r="E181" s="2">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B182" s="2">
         <v>2025</v>
       </c>
       <c r="C182" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D182" t="s">
-        <v>21</v>
-      </c>
-      <c r="E182" s="2">
-        <v>4</v>
+        <v>36</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B183" s="2">
         <v>2025</v>
       </c>
       <c r="C183" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
-      </c>
-      <c r="E183" s="2">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="E183">
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B184" s="2">
         <v>2025</v>
       </c>
       <c r="C184" s="2">
+        <v>7</v>
+      </c>
+      <c r="D184" t="s">
+        <v>18</v>
+      </c>
+      <c r="E184">
         <v>3</v>
-      </c>
-      <c r="D184" t="s">
-        <v>38</v>
-      </c>
-      <c r="E184" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B185" s="2">
         <v>2025</v>
       </c>
       <c r="C185" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
-      </c>
-      <c r="E185" s="2">
-        <v>43</v>
+        <v>19</v>
+      </c>
+      <c r="E185">
+        <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B186" s="2">
         <v>2025</v>
       </c>
       <c r="C186" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D186" t="s">
-        <v>11</v>
-      </c>
-      <c r="E186" s="2">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B187" s="2">
         <v>2025</v>
       </c>
       <c r="C187" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D187" t="s">
-        <v>12</v>
-      </c>
-      <c r="E187" s="2">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="E187">
+        <v>23</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B188" s="2">
         <v>2025</v>
       </c>
       <c r="C188" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D188" t="s">
-        <v>13</v>
-      </c>
-      <c r="E188" s="2">
-        <v>167</v>
+        <v>21</v>
+      </c>
+      <c r="E188">
+        <v>17</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B189" s="2">
         <v>2025</v>
       </c>
       <c r="C189" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D189" t="s">
-        <v>14</v>
-      </c>
-      <c r="E189" s="2">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="E189">
+        <v>29</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B190" s="2">
         <v>2025</v>
       </c>
       <c r="C190" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D190" t="s">
-        <v>15</v>
-      </c>
-      <c r="E190" s="2">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E190">
+        <v>34</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B191" s="2">
         <v>2025</v>
       </c>
       <c r="C191" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D191" t="s">
-        <v>34</v>
-      </c>
-      <c r="E191" s="2">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B192" s="2">
         <v>2025</v>
       </c>
       <c r="C192" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D192" t="s">
-        <v>25</v>
-      </c>
-      <c r="E192" s="2">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="E192">
+        <v>27</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B193" s="2">
         <v>2025</v>
       </c>
       <c r="C193" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D193" t="s">
-        <v>30</v>
-      </c>
-      <c r="E193" s="2">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B194" s="2">
         <v>2025</v>
       </c>
       <c r="C194" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D194" t="s">
-        <v>18</v>
-      </c>
-      <c r="E194" s="2">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B195" s="2">
         <v>2025</v>
       </c>
       <c r="C195" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D195" t="s">
-        <v>33</v>
-      </c>
-      <c r="E195" s="2">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B196" s="2">
         <v>2025</v>
       </c>
       <c r="C196" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D196" t="s">
-        <v>19</v>
-      </c>
-      <c r="E196" s="2">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B197" s="2">
         <v>2025</v>
       </c>
       <c r="C197" s="2">
+        <v>8</v>
+      </c>
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197">
         <v>4</v>
-      </c>
-      <c r="D197" t="s">
-        <v>7</v>
-      </c>
-      <c r="E197" s="2">
-        <v>7</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B198" s="2">
         <v>2025</v>
       </c>
       <c r="C198" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D198" t="s">
-        <v>8</v>
-      </c>
-      <c r="E198" s="2">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B199" s="2">
         <v>2025</v>
       </c>
       <c r="C199" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D199" t="s">
-        <v>21</v>
-      </c>
-      <c r="E199" s="2">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="E199">
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B200" s="2">
         <v>2025</v>
       </c>
       <c r="C200" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D200" t="s">
+        <v>19</v>
+      </c>
+      <c r="E200">
         <v>9</v>
-      </c>
-      <c r="E200" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B201" s="2">
         <v>2025</v>
       </c>
       <c r="C201" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
-      </c>
-      <c r="E201" s="2">
-        <v>62</v>
+        <v>26</v>
+      </c>
+      <c r="E201">
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B202" s="2">
         <v>2025</v>
       </c>
       <c r="C202" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D202" t="s">
-        <v>11</v>
-      </c>
-      <c r="E202" s="2">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E202">
+        <v>25</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B203" s="2">
         <v>2025</v>
       </c>
       <c r="C203" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D203" t="s">
-        <v>12</v>
-      </c>
-      <c r="E203" s="2">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="E203">
+        <v>18</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B204" s="2">
         <v>2025</v>
       </c>
       <c r="C204" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D204" t="s">
-        <v>13</v>
-      </c>
-      <c r="E204" s="2">
-        <v>155</v>
+        <v>22</v>
+      </c>
+      <c r="E204">
+        <v>24</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B205" s="2">
         <v>2025</v>
       </c>
       <c r="C205" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D205" t="s">
-        <v>15</v>
-      </c>
-      <c r="E205" s="2">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="E205">
+        <v>42</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B206" s="2">
         <v>2025</v>
       </c>
       <c r="C206" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D206" t="s">
-        <v>30</v>
-      </c>
-      <c r="E206" s="2">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="E206">
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B207" s="2">
         <v>2025</v>
       </c>
       <c r="C207" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D207" t="s">
-        <v>35</v>
-      </c>
-      <c r="E207" s="2">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="E207">
+        <v>27</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B208" s="2">
         <v>2025</v>
       </c>
       <c r="C208" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D208" t="s">
-        <v>18</v>
-      </c>
-      <c r="E208" s="2">
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B209" s="2">
         <v>2025</v>
       </c>
       <c r="C209" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D209" t="s">
-        <v>6</v>
-      </c>
-      <c r="E209" s="2">
+        <v>31</v>
+      </c>
+      <c r="E209">
         <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B210" s="2">
         <v>2025</v>
       </c>
       <c r="C210" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>33</v>
-      </c>
-      <c r="E210" s="2">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="E210">
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B211" s="2">
         <v>2025</v>
       </c>
       <c r="C211" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>31</v>
-      </c>
-      <c r="E211" s="2">
+        <v>28</v>
+      </c>
+      <c r="E211">
         <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B212" s="2">
         <v>2025</v>
       </c>
       <c r="C212" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>19</v>
-      </c>
-      <c r="E212" s="2">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B213" s="2">
         <v>2025</v>
       </c>
       <c r="C213" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>7</v>
-      </c>
-      <c r="E213" s="2">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="E213">
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B214" s="2">
         <v>2025</v>
       </c>
       <c r="C214" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>8</v>
-      </c>
-      <c r="E214" s="2">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B215" s="2">
         <v>2025</v>
       </c>
       <c r="C215" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>21</v>
-      </c>
-      <c r="E215" s="2">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="E215">
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B216" s="2">
         <v>2025</v>
       </c>
       <c r="C216" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
-      </c>
-      <c r="E216" s="2">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="E216">
+        <v>21</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B217" s="2">
         <v>2025</v>
       </c>
       <c r="C217" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>10</v>
-      </c>
-      <c r="E217" s="2">
-        <v>44</v>
+        <v>21</v>
+      </c>
+      <c r="E217">
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B218" s="2">
         <v>2025</v>
       </c>
       <c r="C218" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>11</v>
-      </c>
-      <c r="E218" s="2">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="E218">
+        <v>24</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B219" s="2">
         <v>2025</v>
       </c>
       <c r="C219" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>12</v>
-      </c>
-      <c r="E219" s="2">
-        <v>59</v>
+        <v>11</v>
+      </c>
+      <c r="E219">
+        <v>33</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B220" s="2">
         <v>2025</v>
       </c>
       <c r="C220" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>13</v>
-      </c>
-      <c r="E220" s="2">
-        <v>155</v>
+        <v>23</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B221" s="2">
         <v>2025</v>
       </c>
       <c r="C221" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>14</v>
-      </c>
-      <c r="E221" s="2">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="E221">
+        <v>20</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B222" s="2">
         <v>2025</v>
       </c>
       <c r="C222" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>15</v>
-      </c>
-      <c r="E222" s="2">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="E222">
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B223" s="2">
         <v>2025</v>
       </c>
       <c r="C223" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D223" t="s">
-        <v>16</v>
-      </c>
-      <c r="E223" s="2">
+        <v>39</v>
+      </c>
+      <c r="E223">
         <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B224" s="2">
         <v>2025</v>
       </c>
       <c r="C224" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D224" t="s">
-        <v>25</v>
-      </c>
-      <c r="E224" s="2">
+        <v>27</v>
+      </c>
+      <c r="E224">
         <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B225" s="2">
         <v>2025</v>
       </c>
       <c r="C225" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D225" t="s">
-        <v>30</v>
-      </c>
-      <c r="E225" s="2">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B226" s="2">
         <v>2025</v>
       </c>
       <c r="C226" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D226" t="s">
-        <v>35</v>
-      </c>
-      <c r="E226" s="2">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="E226">
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B227" s="2">
         <v>2025</v>
       </c>
       <c r="C227" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D227" t="s">
-        <v>18</v>
-      </c>
-      <c r="E227" s="2">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B228" s="2">
         <v>2025</v>
       </c>
       <c r="C228" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D228" t="s">
-        <v>6</v>
-      </c>
-      <c r="E228" s="2">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="E228">
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B229" s="2">
         <v>2025</v>
       </c>
       <c r="C229" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D229" t="s">
-        <v>33</v>
-      </c>
-      <c r="E229" s="2">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="E229">
+        <v>18</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B230" s="2">
         <v>2025</v>
       </c>
       <c r="C230" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D230" t="s">
-        <v>19</v>
-      </c>
-      <c r="E230" s="2">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="E230">
+        <v>16</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B231" s="2">
         <v>2025</v>
       </c>
       <c r="C231" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D231" t="s">
-        <v>7</v>
-      </c>
-      <c r="E231" s="2">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="E231">
+        <v>25</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B232" s="2">
         <v>2025</v>
       </c>
       <c r="C232" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D232" t="s">
-        <v>36</v>
-      </c>
-      <c r="E232" s="2">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="E232">
+        <v>41</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B233" s="2">
         <v>2025</v>
       </c>
       <c r="C233" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D233" t="s">
-        <v>8</v>
-      </c>
-      <c r="E233" s="2">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="E233">
+        <v>23</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B234" s="2">
         <v>2025</v>
       </c>
       <c r="C234" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D234" t="s">
-        <v>21</v>
-      </c>
-      <c r="E234" s="2">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B235" s="2">
         <v>2025</v>
       </c>
       <c r="C235" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D235" t="s">
-        <v>9</v>
-      </c>
-      <c r="E235" s="2">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="E235">
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B236" s="2">
         <v>2025</v>
       </c>
       <c r="C236" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D236" t="s">
-        <v>23</v>
-      </c>
-      <c r="E236" s="2">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="E236">
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B237" s="2">
         <v>2025</v>
       </c>
       <c r="C237" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D237" t="s">
         <v>17</v>
       </c>
-      <c r="E237" s="2">
-        <v>1</v>
+      <c r="E237">
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B238" s="2">
         <v>2025</v>
       </c>
       <c r="C238" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D238" t="s">
-        <v>10</v>
-      </c>
-      <c r="E238" s="2">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B239" s="2">
         <v>2025</v>
       </c>
       <c r="C239" s="2">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s">
+        <v>19</v>
+      </c>
+      <c r="E239">
         <v>6</v>
-      </c>
-      <c r="D239" t="s">
-        <v>11</v>
-      </c>
-      <c r="E239" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B240" s="2">
         <v>2025</v>
       </c>
       <c r="C240" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D240" t="s">
-        <v>12</v>
-      </c>
-      <c r="E240" s="2">
-        <v>42</v>
+        <v>20</v>
+      </c>
+      <c r="E240">
+        <v>19</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B241" s="2">
         <v>2025</v>
       </c>
       <c r="C241" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D241" t="s">
-        <v>13</v>
-      </c>
-      <c r="E241" s="2">
-        <v>169</v>
+        <v>21</v>
+      </c>
+      <c r="E241">
+        <v>20</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B242" s="2">
         <v>2025</v>
       </c>
       <c r="C242" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D242" t="s">
-        <v>15</v>
-      </c>
-      <c r="E242" s="2">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="E242">
+        <v>26</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B243" s="2">
         <v>2025</v>
       </c>
       <c r="C243" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D243" t="s">
-        <v>30</v>
-      </c>
-      <c r="E243" s="2">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E243">
+        <v>38</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B244" s="2">
         <v>2025</v>
       </c>
       <c r="C244" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D244" t="s">
-        <v>35</v>
-      </c>
-      <c r="E244" s="2">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B245" s="2">
         <v>2025</v>
       </c>
       <c r="C245" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D245" t="s">
+        <v>24</v>
+      </c>
+      <c r="E245">
         <v>18</v>
-      </c>
-      <c r="E245" s="2">
-        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B246" s="2">
         <v>2025</v>
       </c>
       <c r="C246" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D246" t="s">
         <v>39</v>
       </c>
-      <c r="E246" s="2">
-        <v>1</v>
+      <c r="E246">
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B247" s="2">
         <v>2025</v>
       </c>
       <c r="C247" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D247" t="s">
-        <v>37</v>
-      </c>
-      <c r="E247" s="2">
+        <v>16</v>
+      </c>
+      <c r="E247">
         <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B248" s="2">
         <v>2025</v>
       </c>
       <c r="C248" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D248" t="s">
-        <v>33</v>
-      </c>
-      <c r="E248" s="2">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B249" s="2">
         <v>2025</v>
       </c>
       <c r="C249" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D249" t="s">
-        <v>19</v>
-      </c>
-      <c r="E249" s="2">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="E249">
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B250" s="2">
         <v>2025</v>
       </c>
       <c r="C250" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D250" t="s">
-        <v>7</v>
-      </c>
-      <c r="E250" s="2">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="E250">
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B251" s="2">
         <v>2025</v>
       </c>
       <c r="C251" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D251" t="s">
-        <v>36</v>
-      </c>
-      <c r="E251" s="2">
+        <v>30</v>
+      </c>
+      <c r="E251">
         <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B252" s="2">
         <v>2025</v>
       </c>
       <c r="C252" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D252" t="s">
-        <v>8</v>
-      </c>
-      <c r="E252" s="2">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="E252">
+        <v>13</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
+        <v>41</v>
+      </c>
+      <c r="B253" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C253" s="2">
+        <v>1</v>
+      </c>
+      <c r="D253" t="s">
         <v>32</v>
       </c>
-      <c r="B253" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C253" s="2">
-        <v>7</v>
-      </c>
-      <c r="D253" t="s">
-        <v>21</v>
-      </c>
-      <c r="E253" s="2">
-        <v>1</v>
+      <c r="E253">
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B254" s="2">
         <v>2025</v>
       </c>
       <c r="C254" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D254" t="s">
-        <v>9</v>
-      </c>
-      <c r="E254" s="2">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="E254">
+        <v>43</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B255" s="2">
         <v>2025</v>
       </c>
       <c r="C255" s="2">
+        <v>1</v>
+      </c>
+      <c r="D255" t="s">
+        <v>21</v>
+      </c>
+      <c r="E255">
         <v>7</v>
-      </c>
-      <c r="D255" t="s">
-        <v>10</v>
-      </c>
-      <c r="E255" s="2">
-        <v>38</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B256" s="2">
         <v>2025</v>
       </c>
       <c r="C256" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D256" t="s">
-        <v>11</v>
-      </c>
-      <c r="E256" s="2">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="E256">
+        <v>54</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B257" s="2">
         <v>2025</v>
       </c>
       <c r="C257" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D257" t="s">
-        <v>12</v>
-      </c>
-      <c r="E257" s="2">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="E257">
+        <v>166</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B258" s="2">
         <v>2025</v>
       </c>
       <c r="C258" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D258" t="s">
-        <v>13</v>
-      </c>
-      <c r="E258" s="2">
-        <v>141</v>
+        <v>24</v>
+      </c>
+      <c r="E258">
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B259" s="2">
         <v>2025</v>
       </c>
       <c r="C259" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D259" t="s">
-        <v>15</v>
-      </c>
-      <c r="E259" s="2">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="E259">
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B260" s="2">
         <v>2025</v>
       </c>
       <c r="C260" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D260" t="s">
-        <v>16</v>
-      </c>
-      <c r="E260" s="2">
+        <v>43</v>
+      </c>
+      <c r="E260">
         <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B261" s="2">
         <v>2025</v>
       </c>
       <c r="C261" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D261" t="s">
-        <v>30</v>
-      </c>
-      <c r="E261" s="2">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B262" s="2">
         <v>2025</v>
       </c>
       <c r="C262" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D262" t="s">
-        <v>6</v>
-      </c>
-      <c r="E262" s="2">
+        <v>44</v>
+      </c>
+      <c r="E262">
         <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B263" s="2">
         <v>2025</v>
       </c>
       <c r="C263" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D263" t="s">
         <v>27</v>
       </c>
-      <c r="E263" s="2">
+      <c r="E263">
         <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B264" s="2">
         <v>2025</v>
       </c>
       <c r="C264" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D264" t="s">
-        <v>33</v>
-      </c>
-      <c r="E264" s="2">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="E264">
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B265" s="2">
         <v>2025</v>
       </c>
       <c r="C265" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D265" t="s">
-        <v>19</v>
-      </c>
-      <c r="E265" s="2">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B266" s="2">
         <v>2025</v>
       </c>
       <c r="C266" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D266" t="s">
-        <v>7</v>
-      </c>
-      <c r="E266" s="2">
-        <v>6</v>
+        <v>42</v>
+      </c>
+      <c r="E266">
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B267" s="2">
         <v>2025</v>
       </c>
       <c r="C267" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D267" t="s">
-        <v>36</v>
-      </c>
-      <c r="E267" s="2">
+        <v>28</v>
+      </c>
+      <c r="E267">
         <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B268" s="2">
         <v>2025</v>
       </c>
       <c r="C268" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D268" t="s">
-        <v>8</v>
-      </c>
-      <c r="E268" s="2">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="E268">
+        <v>9</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B269" s="2">
         <v>2025</v>
       </c>
       <c r="C269" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D269" t="s">
-        <v>21</v>
-      </c>
-      <c r="E269" s="2">
+        <v>45</v>
+      </c>
+      <c r="E269">
         <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B270" s="2">
         <v>2025</v>
       </c>
       <c r="C270" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D270" t="s">
-        <v>9</v>
-      </c>
-      <c r="E270" s="2">
         <v>18</v>
+      </c>
+      <c r="E270">
+        <v>16</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B271" s="2">
         <v>2025</v>
       </c>
       <c r="C271" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D271" t="s">
-        <v>23</v>
-      </c>
-      <c r="E271" s="2">
+        <v>30</v>
+      </c>
+      <c r="E271">
         <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B272" s="2">
         <v>2025</v>
       </c>
       <c r="C272" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D272" t="s">
-        <v>10</v>
-      </c>
-      <c r="E272" s="2">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="E272">
+        <v>16</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
+        <v>41</v>
+      </c>
+      <c r="B273" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C273" s="2">
+        <v>2</v>
+      </c>
+      <c r="D273" t="s">
         <v>32</v>
       </c>
-      <c r="B273" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C273" s="2">
-        <v>8</v>
-      </c>
-      <c r="D273" t="s">
-        <v>11</v>
-      </c>
-      <c r="E273" s="2">
-        <v>19</v>
+      <c r="E273">
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B274" s="2">
         <v>2025</v>
       </c>
       <c r="C274" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D274" t="s">
-        <v>12</v>
-      </c>
-      <c r="E274" s="2">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B275" s="2">
         <v>2025</v>
       </c>
       <c r="C275" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D275" t="s">
-        <v>13</v>
-      </c>
-      <c r="E275" s="2">
-        <v>152</v>
+        <v>20</v>
+      </c>
+      <c r="E275">
+        <v>33</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B276" s="2">
         <v>2025</v>
       </c>
       <c r="C276" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D276" t="s">
-        <v>14</v>
-      </c>
-      <c r="E276" s="2">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="E276">
+        <v>11</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B277" s="2">
         <v>2025</v>
       </c>
       <c r="C277" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D277" t="s">
-        <v>15</v>
-      </c>
-      <c r="E277" s="2">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="E277">
+        <v>46</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B278" s="2">
         <v>2025</v>
       </c>
       <c r="C278" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D278" t="s">
-        <v>16</v>
-      </c>
-      <c r="E278" s="2">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E278">
+        <v>134</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B279" s="2">
         <v>2025</v>
       </c>
       <c r="C279" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D279" t="s">
-        <v>30</v>
-      </c>
-      <c r="E279" s="2">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="E279">
+        <v>18</v>
       </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B280" s="2">
         <v>2025</v>
       </c>
       <c r="C280" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D280" t="s">
-        <v>18</v>
-      </c>
-      <c r="E280" s="2">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B281" s="2">
         <v>2025</v>
       </c>
       <c r="C281" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D281" t="s">
-        <v>6</v>
-      </c>
-      <c r="E281" s="2">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="E281">
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B282" s="2">
         <v>2025</v>
       </c>
       <c r="C282" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D282" t="s">
-        <v>33</v>
-      </c>
-      <c r="E282" s="2">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B283" s="2">
         <v>2025</v>
       </c>
       <c r="C283" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D283" t="s">
-        <v>19</v>
-      </c>
-      <c r="E283" s="2">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="E283">
+        <v>5</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B284" s="2">
         <v>2025</v>
       </c>
       <c r="C284" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D284" t="s">
-        <v>7</v>
-      </c>
-      <c r="E284" s="2">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="E284">
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B285" s="2">
         <v>2025</v>
       </c>
       <c r="C285" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D285" t="s">
-        <v>36</v>
-      </c>
-      <c r="E285" s="2">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="E285">
+        <v>12</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B286" s="2">
         <v>2025</v>
       </c>
       <c r="C286" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D286" t="s">
-        <v>8</v>
-      </c>
-      <c r="E286" s="2">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="E286">
+        <v>22</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B287" s="2">
         <v>2025</v>
       </c>
       <c r="C287" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D287" t="s">
-        <v>21</v>
-      </c>
-      <c r="E287" s="2">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="E287">
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B288" s="2">
         <v>2025</v>
       </c>
       <c r="C288" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D288" t="s">
-        <v>9</v>
-      </c>
-      <c r="E288" s="2">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="E288">
+        <v>21</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B289" s="2">
         <v>2025</v>
       </c>
       <c r="C289" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D289" t="s">
-        <v>38</v>
-      </c>
-      <c r="E289" s="2">
+        <v>47</v>
+      </c>
+      <c r="E289">
         <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B290" s="2">
         <v>2025</v>
       </c>
       <c r="C290" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D290" t="s">
-        <v>23</v>
-      </c>
-      <c r="E290" s="2">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="E290">
+        <v>43</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B291" s="2">
         <v>2025</v>
       </c>
       <c r="C291" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D291" t="s">
-        <v>10</v>
-      </c>
-      <c r="E291" s="2">
-        <v>44</v>
+        <v>21</v>
+      </c>
+      <c r="E291">
+        <v>20</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B292" s="2">
         <v>2025</v>
       </c>
       <c r="C292" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D292" t="s">
-        <v>11</v>
-      </c>
-      <c r="E292" s="2">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="E292">
+        <v>50</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B293" s="2">
         <v>2025</v>
       </c>
       <c r="C293" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D293" t="s">
-        <v>12</v>
-      </c>
-      <c r="E293" s="2">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E293">
+        <v>167</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B294" s="2">
         <v>2025</v>
       </c>
       <c r="C294" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D294" t="s">
-        <v>13</v>
-      </c>
-      <c r="E294" s="2">
-        <v>138</v>
+        <v>23</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B295" s="2">
         <v>2025</v>
       </c>
       <c r="C295" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D295" t="s">
-        <v>15</v>
-      </c>
-      <c r="E295" s="2">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="E295">
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B296" s="2">
         <v>2025</v>
       </c>
       <c r="C296" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D296" t="s">
-        <v>30</v>
-      </c>
-      <c r="E296" s="2">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="E296">
+        <v>3</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B297" s="2">
         <v>2025</v>
       </c>
       <c r="C297" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D297" t="s">
-        <v>28</v>
-      </c>
-      <c r="E297" s="2">
+        <v>34</v>
+      </c>
+      <c r="E297">
         <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B298" s="2">
         <v>2025</v>
       </c>
       <c r="C298" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D298" t="s">
-        <v>33</v>
-      </c>
-      <c r="E298" s="2">
-        <v>6</v>
+        <v>39</v>
+      </c>
+      <c r="E298">
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B299" s="2">
         <v>2025</v>
       </c>
       <c r="C299" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D299" t="s">
-        <v>29</v>
-      </c>
-      <c r="E299" s="2">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="E299">
+        <v>6</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B300" s="2">
         <v>2025</v>
       </c>
       <c r="C300" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D300" t="s">
-        <v>19</v>
-      </c>
-      <c r="E300" s="2">
+        <v>42</v>
+      </c>
+      <c r="E300">
         <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B301" s="2">
         <v>2025</v>
       </c>
       <c r="C301" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D301" t="s">
-        <v>7</v>
-      </c>
-      <c r="E301" s="2">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="E301">
+        <v>9</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B302" s="2">
         <v>2025</v>
       </c>
       <c r="C302" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D302" t="s">
-        <v>36</v>
-      </c>
-      <c r="E302" s="2">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="E302">
+        <v>7</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B303" s="2">
         <v>2025</v>
       </c>
       <c r="C303" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D303" t="s">
-        <v>8</v>
-      </c>
-      <c r="E303" s="2">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="E303">
+        <v>16</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B304" s="2">
         <v>2025</v>
       </c>
       <c r="C304" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D304" t="s">
-        <v>21</v>
-      </c>
-      <c r="E304" s="2">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="E304">
+        <v>8</v>
       </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B305" s="2">
         <v>2025</v>
       </c>
       <c r="C305" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D305" t="s">
-        <v>9</v>
-      </c>
-      <c r="E305" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E305">
+        <v>21</v>
       </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B306" s="2">
         <v>2025</v>
       </c>
       <c r="C306" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D306" t="s">
-        <v>17</v>
-      </c>
-      <c r="E306" s="2">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="E306">
+        <v>62</v>
       </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B307" s="2">
         <v>2025</v>
       </c>
       <c r="C307" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D307" t="s">
-        <v>10</v>
-      </c>
-      <c r="E307" s="2">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="E307">
+        <v>17</v>
       </c>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B308" s="2">
         <v>2025</v>
       </c>
       <c r="C308" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D308" t="s">
-        <v>11</v>
-      </c>
-      <c r="E308" s="2">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="E308">
+        <v>34</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B309" s="2">
         <v>2025</v>
       </c>
       <c r="C309" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D309" t="s">
-        <v>12</v>
-      </c>
-      <c r="E309" s="2">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="E309">
+        <v>155</v>
       </c>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B310" s="2">
         <v>2025</v>
       </c>
       <c r="C310" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D310" t="s">
-        <v>13</v>
-      </c>
-      <c r="E310" s="2">
-        <v>147</v>
+        <v>24</v>
+      </c>
+      <c r="E310">
+        <v>28</v>
       </c>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B311" s="2">
         <v>2025</v>
       </c>
       <c r="C311" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D311" t="s">
-        <v>14</v>
-      </c>
-      <c r="E311" s="2">
+        <v>39</v>
+      </c>
+      <c r="E311">
         <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B312" s="2">
         <v>2025</v>
       </c>
       <c r="C312" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D312" t="s">
-        <v>15</v>
-      </c>
-      <c r="E312" s="2">
-        <v>26</v>
+        <v>44</v>
+      </c>
+      <c r="E312">
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B313" s="2">
         <v>2025</v>
       </c>
       <c r="C313" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D313" t="s">
-        <v>30</v>
-      </c>
-      <c r="E313" s="2">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="E313">
+        <v>8</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B314" s="2">
         <v>2025</v>
       </c>
       <c r="C314" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D314" t="s">
-        <v>18</v>
-      </c>
-      <c r="E314" s="2">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="E314">
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B315" s="2">
         <v>2025</v>
       </c>
       <c r="C315" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D315" t="s">
-        <v>27</v>
-      </c>
-      <c r="E315" s="2">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="E315">
+        <v>4</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B316" s="2">
         <v>2025</v>
       </c>
       <c r="C316" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D316" t="s">
-        <v>33</v>
-      </c>
-      <c r="E316" s="2">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="E316">
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B317" s="2">
         <v>2025</v>
       </c>
       <c r="C317" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D317" t="s">
-        <v>40</v>
-      </c>
-      <c r="E317" s="2">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="E317">
+        <v>8</v>
       </c>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B318" s="2">
         <v>2025</v>
       </c>
       <c r="C318" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D318" t="s">
-        <v>19</v>
-      </c>
-      <c r="E318" s="2">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="E318">
+        <v>10</v>
       </c>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B319" s="2">
         <v>2025</v>
       </c>
       <c r="C319" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D319" t="s">
-        <v>7</v>
-      </c>
-      <c r="E319" s="2">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="E319">
+        <v>13</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B320" s="2">
         <v>2025</v>
       </c>
       <c r="C320" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D320" t="s">
-        <v>36</v>
-      </c>
-      <c r="E320" s="2">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="E320">
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B321" s="2">
         <v>2025</v>
       </c>
       <c r="C321" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D321" t="s">
-        <v>8</v>
-      </c>
-      <c r="E321" s="2">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="E321">
+        <v>18</v>
       </c>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B322" s="2">
         <v>2025</v>
       </c>
       <c r="C322" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D322" t="s">
-        <v>21</v>
-      </c>
-      <c r="E322" s="2">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="E322">
+        <v>44</v>
       </c>
     </row>
     <row r="323" spans="1:5">
       <c r="A323" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B323" s="2">
         <v>2025</v>
       </c>
       <c r="C323" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D323" t="s">
-        <v>9</v>
-      </c>
-      <c r="E323" s="2">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="E323">
+        <v>16</v>
       </c>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B324" s="2">
         <v>2025</v>
       </c>
       <c r="C324" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D324" t="s">
-        <v>10</v>
-      </c>
-      <c r="E324" s="2">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="E324">
+        <v>59</v>
       </c>
     </row>
     <row r="325" spans="1:5">
       <c r="A325" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B325" s="2">
         <v>2025</v>
       </c>
       <c r="C325" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D325" t="s">
         <v>11</v>
       </c>
-      <c r="E325" s="2">
-        <v>13</v>
+      <c r="E325">
+        <v>155</v>
       </c>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B326" s="2">
         <v>2025</v>
       </c>
       <c r="C326" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D326" t="s">
-        <v>12</v>
-      </c>
-      <c r="E326" s="2">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="E326">
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B327" s="2">
         <v>2025</v>
       </c>
       <c r="C327" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D327" t="s">
-        <v>13</v>
-      </c>
-      <c r="E327" s="2">
-        <v>134</v>
+        <v>24</v>
+      </c>
+      <c r="E327">
+        <v>21</v>
       </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B328" s="2">
         <v>2025</v>
       </c>
       <c r="C328" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D328" t="s">
-        <v>14</v>
-      </c>
-      <c r="E328" s="2">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="E328">
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B329" s="2">
         <v>2025</v>
       </c>
       <c r="C329" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D329" t="s">
-        <v>15</v>
-      </c>
-      <c r="E329" s="2">
-        <v>23</v>
+        <v>34</v>
+      </c>
+      <c r="E329">
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B330" s="2">
         <v>2025</v>
       </c>
       <c r="C330" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D330" t="s">
-        <v>34</v>
-      </c>
-      <c r="E330" s="2">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="E330">
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" t="s">
+        <v>41</v>
+      </c>
+      <c r="B331" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C331" s="2">
+        <v>6</v>
+      </c>
+      <c r="D331" t="s">
+        <v>44</v>
+      </c>
+      <c r="E331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" t="s">
+        <v>41</v>
+      </c>
+      <c r="B332" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C332" s="2">
+        <v>6</v>
+      </c>
+      <c r="D332" t="s">
+        <v>27</v>
+      </c>
+      <c r="E332">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" t="s">
+        <v>41</v>
+      </c>
+      <c r="B333" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C333" s="2">
+        <v>6</v>
+      </c>
+      <c r="D333" t="s">
+        <v>16</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" t="s">
+        <v>41</v>
+      </c>
+      <c r="B334" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C334" s="2">
+        <v>6</v>
+      </c>
+      <c r="D334" t="s">
+        <v>42</v>
+      </c>
+      <c r="E334">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" t="s">
+        <v>41</v>
+      </c>
+      <c r="B335" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C335" s="2">
+        <v>6</v>
+      </c>
+      <c r="D335" t="s">
+        <v>28</v>
+      </c>
+      <c r="E335">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" t="s">
+        <v>41</v>
+      </c>
+      <c r="B336" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C336" s="2">
+        <v>6</v>
+      </c>
+      <c r="D336" t="s">
+        <v>17</v>
+      </c>
+      <c r="E336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" t="s">
+        <v>41</v>
+      </c>
+      <c r="B337" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C337" s="2">
+        <v>6</v>
+      </c>
+      <c r="D337" t="s">
+        <v>45</v>
+      </c>
+      <c r="E337">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" t="s">
+        <v>41</v>
+      </c>
+      <c r="B338" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C338" s="2">
+        <v>6</v>
+      </c>
+      <c r="D338" t="s">
+        <v>18</v>
+      </c>
+      <c r="E338">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" t="s">
+        <v>41</v>
+      </c>
+      <c r="B339" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C339" s="2">
+        <v>6</v>
+      </c>
+      <c r="D339" t="s">
+        <v>30</v>
+      </c>
+      <c r="E339">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" t="s">
+        <v>41</v>
+      </c>
+      <c r="B340" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C340" s="2">
+        <v>6</v>
+      </c>
+      <c r="D340" t="s">
+        <v>19</v>
+      </c>
+      <c r="E340">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" t="s">
+        <v>41</v>
+      </c>
+      <c r="B341" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C341" s="2">
+        <v>6</v>
+      </c>
+      <c r="D341" t="s">
         <v>32</v>
       </c>
-      <c r="B331" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C331" s="2">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s">
+      <c r="E341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" t="s">
+        <v>41</v>
+      </c>
+      <c r="B342" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C342" s="2">
+        <v>6</v>
+      </c>
+      <c r="D342" t="s">
+        <v>26</v>
+      </c>
+      <c r="E342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" t="s">
+        <v>41</v>
+      </c>
+      <c r="B343" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C343" s="2">
+        <v>6</v>
+      </c>
+      <c r="D343" t="s">
+        <v>20</v>
+      </c>
+      <c r="E343">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" t="s">
+        <v>41</v>
+      </c>
+      <c r="B344" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C344" s="2">
+        <v>6</v>
+      </c>
+      <c r="D344" t="s">
+        <v>21</v>
+      </c>
+      <c r="E344">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" t="s">
+        <v>41</v>
+      </c>
+      <c r="B345" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C345" s="2">
+        <v>6</v>
+      </c>
+      <c r="D345" t="s">
         <v>22</v>
       </c>
-      <c r="E331" s="2">
+      <c r="E345">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" t="s">
+        <v>41</v>
+      </c>
+      <c r="B346" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C346" s="2">
+        <v>6</v>
+      </c>
+      <c r="D346" t="s">
+        <v>11</v>
+      </c>
+      <c r="E346">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" t="s">
+        <v>41</v>
+      </c>
+      <c r="B347" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C347" s="2">
+        <v>6</v>
+      </c>
+      <c r="D347" t="s">
+        <v>24</v>
+      </c>
+      <c r="E347">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" t="s">
+        <v>41</v>
+      </c>
+      <c r="B348" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C348" s="2">
+        <v>7</v>
+      </c>
+      <c r="D348" t="s">
+        <v>39</v>
+      </c>
+      <c r="E348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" t="s">
+        <v>41</v>
+      </c>
+      <c r="B349" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C349" s="2">
+        <v>7</v>
+      </c>
+      <c r="D349" t="s">
+        <v>44</v>
+      </c>
+      <c r="E349">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" t="s">
+        <v>41</v>
+      </c>
+      <c r="B350" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C350" s="2">
+        <v>7</v>
+      </c>
+      <c r="D350" t="s">
+        <v>27</v>
+      </c>
+      <c r="E350">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" t="s">
+        <v>41</v>
+      </c>
+      <c r="B351" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C351" s="2">
+        <v>7</v>
+      </c>
+      <c r="D351" t="s">
+        <v>48</v>
+      </c>
+      <c r="E351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" t="s">
+        <v>41</v>
+      </c>
+      <c r="B352" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C352" s="2">
+        <v>7</v>
+      </c>
+      <c r="D352" t="s">
+        <v>46</v>
+      </c>
+      <c r="E352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" t="s">
+        <v>41</v>
+      </c>
+      <c r="B353" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C353" s="2">
+        <v>7</v>
+      </c>
+      <c r="D353" t="s">
+        <v>42</v>
+      </c>
+      <c r="E353">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" t="s">
+        <v>41</v>
+      </c>
+      <c r="B354" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C354" s="2">
+        <v>7</v>
+      </c>
+      <c r="D354" t="s">
+        <v>28</v>
+      </c>
+      <c r="E354">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" t="s">
+        <v>41</v>
+      </c>
+      <c r="B355" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C355" s="2">
+        <v>7</v>
+      </c>
+      <c r="D355" t="s">
+        <v>17</v>
+      </c>
+      <c r="E355">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" t="s">
+        <v>41</v>
+      </c>
+      <c r="B356" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C356" s="2">
+        <v>7</v>
+      </c>
+      <c r="D356" t="s">
+        <v>45</v>
+      </c>
+      <c r="E356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" t="s">
+        <v>41</v>
+      </c>
+      <c r="B357" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C357" s="2">
+        <v>7</v>
+      </c>
+      <c r="D357" t="s">
+        <v>18</v>
+      </c>
+      <c r="E357">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" t="s">
+        <v>41</v>
+      </c>
+      <c r="B358" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C358" s="2">
+        <v>7</v>
+      </c>
+      <c r="D358" t="s">
+        <v>30</v>
+      </c>
+      <c r="E358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" t="s">
+        <v>41</v>
+      </c>
+      <c r="B359" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C359" s="2">
+        <v>7</v>
+      </c>
+      <c r="D359" t="s">
+        <v>19</v>
+      </c>
+      <c r="E359">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" t="s">
+        <v>41</v>
+      </c>
+      <c r="B360" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C360" s="2">
+        <v>7</v>
+      </c>
+      <c r="D360" t="s">
+        <v>20</v>
+      </c>
+      <c r="E360">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" t="s">
+        <v>41</v>
+      </c>
+      <c r="B361" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C361" s="2">
+        <v>7</v>
+      </c>
+      <c r="D361" t="s">
+        <v>21</v>
+      </c>
+      <c r="E361">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" t="s">
+        <v>41</v>
+      </c>
+      <c r="B362" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C362" s="2">
+        <v>7</v>
+      </c>
+      <c r="D362" t="s">
+        <v>22</v>
+      </c>
+      <c r="E362">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" t="s">
+        <v>41</v>
+      </c>
+      <c r="B363" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C363" s="2">
+        <v>7</v>
+      </c>
+      <c r="D363" t="s">
+        <v>11</v>
+      </c>
+      <c r="E363">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" t="s">
+        <v>41</v>
+      </c>
+      <c r="B364" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C364" s="2">
+        <v>7</v>
+      </c>
+      <c r="D364" t="s">
+        <v>24</v>
+      </c>
+      <c r="E364">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" t="s">
+        <v>41</v>
+      </c>
+      <c r="B365" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C365" s="2">
+        <v>7</v>
+      </c>
+      <c r="D365" t="s">
+        <v>25</v>
+      </c>
+      <c r="E365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" t="s">
+        <v>41</v>
+      </c>
+      <c r="B366" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C366" s="2">
+        <v>8</v>
+      </c>
+      <c r="D366" t="s">
+        <v>39</v>
+      </c>
+      <c r="E366">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" t="s">
+        <v>41</v>
+      </c>
+      <c r="B367" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C367" s="2">
+        <v>8</v>
+      </c>
+      <c r="D367" t="s">
+        <v>16</v>
+      </c>
+      <c r="E367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" t="s">
+        <v>41</v>
+      </c>
+      <c r="B368" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C368" s="2">
+        <v>8</v>
+      </c>
+      <c r="D368" t="s">
+        <v>36</v>
+      </c>
+      <c r="E368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" t="s">
+        <v>41</v>
+      </c>
+      <c r="B369" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C369" s="2">
+        <v>8</v>
+      </c>
+      <c r="D369" t="s">
+        <v>42</v>
+      </c>
+      <c r="E369">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" t="s">
+        <v>41</v>
+      </c>
+      <c r="B370" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C370" s="2">
+        <v>8</v>
+      </c>
+      <c r="D370" t="s">
+        <v>28</v>
+      </c>
+      <c r="E370">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" t="s">
+        <v>41</v>
+      </c>
+      <c r="B371" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C371" s="2">
+        <v>8</v>
+      </c>
+      <c r="D371" t="s">
+        <v>17</v>
+      </c>
+      <c r="E371">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" t="s">
+        <v>41</v>
+      </c>
+      <c r="B372" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C372" s="2">
+        <v>8</v>
+      </c>
+      <c r="D372" t="s">
+        <v>45</v>
+      </c>
+      <c r="E372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" t="s">
+        <v>41</v>
+      </c>
+      <c r="B373" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C373" s="2">
+        <v>8</v>
+      </c>
+      <c r="D373" t="s">
+        <v>18</v>
+      </c>
+      <c r="E373">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" t="s">
+        <v>41</v>
+      </c>
+      <c r="B374" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C374" s="2">
+        <v>8</v>
+      </c>
+      <c r="D374" t="s">
+        <v>30</v>
+      </c>
+      <c r="E374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" t="s">
+        <v>41</v>
+      </c>
+      <c r="B375" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C375" s="2">
+        <v>8</v>
+      </c>
+      <c r="D375" t="s">
+        <v>19</v>
+      </c>
+      <c r="E375">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" t="s">
+        <v>41</v>
+      </c>
+      <c r="B376" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C376" s="2">
+        <v>8</v>
+      </c>
+      <c r="D376" t="s">
+        <v>32</v>
+      </c>
+      <c r="E376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" t="s">
+        <v>41</v>
+      </c>
+      <c r="B377" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C377" s="2">
+        <v>8</v>
+      </c>
+      <c r="D377" t="s">
+        <v>20</v>
+      </c>
+      <c r="E377">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" t="s">
+        <v>41</v>
+      </c>
+      <c r="B378" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C378" s="2">
+        <v>8</v>
+      </c>
+      <c r="D378" t="s">
+        <v>21</v>
+      </c>
+      <c r="E378">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" t="s">
+        <v>41</v>
+      </c>
+      <c r="B379" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C379" s="2">
+        <v>8</v>
+      </c>
+      <c r="D379" t="s">
+        <v>22</v>
+      </c>
+      <c r="E379">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" t="s">
+        <v>41</v>
+      </c>
+      <c r="B380" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C380" s="2">
+        <v>8</v>
+      </c>
+      <c r="D380" t="s">
+        <v>11</v>
+      </c>
+      <c r="E380">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" t="s">
+        <v>41</v>
+      </c>
+      <c r="B381" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C381" s="2">
+        <v>8</v>
+      </c>
+      <c r="D381" t="s">
+        <v>23</v>
+      </c>
+      <c r="E381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" t="s">
+        <v>41</v>
+      </c>
+      <c r="B382" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C382" s="2">
+        <v>8</v>
+      </c>
+      <c r="D382" t="s">
+        <v>24</v>
+      </c>
+      <c r="E382">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" t="s">
+        <v>41</v>
+      </c>
+      <c r="B383" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C383" s="2">
+        <v>8</v>
+      </c>
+      <c r="D383" t="s">
+        <v>25</v>
+      </c>
+      <c r="E383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" t="s">
+        <v>41</v>
+      </c>
+      <c r="B384" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C384" s="2">
+        <v>9</v>
+      </c>
+      <c r="D384" t="s">
+        <v>39</v>
+      </c>
+      <c r="E384">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" t="s">
+        <v>41</v>
+      </c>
+      <c r="B385" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C385" s="2">
+        <v>9</v>
+      </c>
+      <c r="D385" t="s">
+        <v>27</v>
+      </c>
+      <c r="E385">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" t="s">
+        <v>41</v>
+      </c>
+      <c r="B386" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C386" s="2">
+        <v>9</v>
+      </c>
+      <c r="D386" t="s">
+        <v>16</v>
+      </c>
+      <c r="E386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" t="s">
+        <v>41</v>
+      </c>
+      <c r="B387" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C387" s="2">
+        <v>9</v>
+      </c>
+      <c r="D387" t="s">
+        <v>42</v>
+      </c>
+      <c r="E387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" t="s">
+        <v>41</v>
+      </c>
+      <c r="B388" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C388" s="2">
+        <v>9</v>
+      </c>
+      <c r="D388" t="s">
+        <v>28</v>
+      </c>
+      <c r="E388">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" t="s">
+        <v>41</v>
+      </c>
+      <c r="B389" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C389" s="2">
+        <v>9</v>
+      </c>
+      <c r="D389" t="s">
+        <v>17</v>
+      </c>
+      <c r="E389">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" t="s">
+        <v>41</v>
+      </c>
+      <c r="B390" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C390" s="2">
+        <v>9</v>
+      </c>
+      <c r="D390" t="s">
+        <v>45</v>
+      </c>
+      <c r="E390">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" t="s">
+        <v>41</v>
+      </c>
+      <c r="B391" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C391" s="2">
+        <v>9</v>
+      </c>
+      <c r="D391" t="s">
+        <v>18</v>
+      </c>
+      <c r="E391">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" t="s">
+        <v>41</v>
+      </c>
+      <c r="B392" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C392" s="2">
+        <v>9</v>
+      </c>
+      <c r="D392" t="s">
+        <v>30</v>
+      </c>
+      <c r="E392">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" t="s">
+        <v>41</v>
+      </c>
+      <c r="B393" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C393" s="2">
+        <v>9</v>
+      </c>
+      <c r="D393" t="s">
+        <v>19</v>
+      </c>
+      <c r="E393">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" t="s">
+        <v>41</v>
+      </c>
+      <c r="B394" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C394" s="2">
+        <v>9</v>
+      </c>
+      <c r="D394" t="s">
+        <v>47</v>
+      </c>
+      <c r="E394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" t="s">
+        <v>41</v>
+      </c>
+      <c r="B395" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C395" s="2">
+        <v>9</v>
+      </c>
+      <c r="D395" t="s">
+        <v>32</v>
+      </c>
+      <c r="E395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" t="s">
+        <v>41</v>
+      </c>
+      <c r="B396" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C396" s="2">
+        <v>9</v>
+      </c>
+      <c r="D396" t="s">
+        <v>20</v>
+      </c>
+      <c r="E396">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" t="s">
+        <v>41</v>
+      </c>
+      <c r="B397" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C397" s="2">
+        <v>9</v>
+      </c>
+      <c r="D397" t="s">
+        <v>21</v>
+      </c>
+      <c r="E397">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" t="s">
+        <v>41</v>
+      </c>
+      <c r="B398" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C398" s="2">
+        <v>9</v>
+      </c>
+      <c r="D398" t="s">
+        <v>22</v>
+      </c>
+      <c r="E398">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" t="s">
+        <v>41</v>
+      </c>
+      <c r="B399" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C399" s="2">
+        <v>9</v>
+      </c>
+      <c r="D399" t="s">
+        <v>11</v>
+      </c>
+      <c r="E399">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" t="s">
+        <v>41</v>
+      </c>
+      <c r="B400" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C400" s="2">
+        <v>9</v>
+      </c>
+      <c r="D400" t="s">
+        <v>24</v>
+      </c>
+      <c r="E400">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" t="s">
+        <v>41</v>
+      </c>
+      <c r="B401" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C401" s="2">
+        <v>10</v>
+      </c>
+      <c r="D401" t="s">
+        <v>39</v>
+      </c>
+      <c r="E401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" t="s">
+        <v>41</v>
+      </c>
+      <c r="B402" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C402" s="2">
+        <v>10</v>
+      </c>
+      <c r="D402" t="s">
+        <v>37</v>
+      </c>
+      <c r="E402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" t="s">
+        <v>41</v>
+      </c>
+      <c r="B403" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C403" s="2">
+        <v>10</v>
+      </c>
+      <c r="D403" t="s">
+        <v>42</v>
+      </c>
+      <c r="E403">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" t="s">
+        <v>41</v>
+      </c>
+      <c r="B404" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C404" s="2">
+        <v>10</v>
+      </c>
+      <c r="D404" t="s">
+        <v>38</v>
+      </c>
+      <c r="E404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" t="s">
+        <v>41</v>
+      </c>
+      <c r="B405" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C405" s="2">
+        <v>10</v>
+      </c>
+      <c r="D405" t="s">
+        <v>28</v>
+      </c>
+      <c r="E405">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" t="s">
+        <v>41</v>
+      </c>
+      <c r="B406" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C406" s="2">
+        <v>10</v>
+      </c>
+      <c r="D406" t="s">
+        <v>17</v>
+      </c>
+      <c r="E406">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" t="s">
+        <v>41</v>
+      </c>
+      <c r="B407" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C407" s="2">
+        <v>10</v>
+      </c>
+      <c r="D407" t="s">
+        <v>45</v>
+      </c>
+      <c r="E407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" t="s">
+        <v>41</v>
+      </c>
+      <c r="B408" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C408" s="2">
+        <v>10</v>
+      </c>
+      <c r="D408" t="s">
+        <v>18</v>
+      </c>
+      <c r="E408">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" t="s">
+        <v>41</v>
+      </c>
+      <c r="B409" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C409" s="2">
+        <v>10</v>
+      </c>
+      <c r="D409" t="s">
+        <v>30</v>
+      </c>
+      <c r="E409">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" t="s">
+        <v>41</v>
+      </c>
+      <c r="B410" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C410" s="2">
+        <v>10</v>
+      </c>
+      <c r="D410" t="s">
+        <v>19</v>
+      </c>
+      <c r="E410">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" t="s">
+        <v>41</v>
+      </c>
+      <c r="B411" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C411" s="2">
+        <v>10</v>
+      </c>
+      <c r="D411" t="s">
+        <v>26</v>
+      </c>
+      <c r="E411">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" t="s">
+        <v>41</v>
+      </c>
+      <c r="B412" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C412" s="2">
+        <v>10</v>
+      </c>
+      <c r="D412" t="s">
+        <v>20</v>
+      </c>
+      <c r="E412">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" t="s">
+        <v>41</v>
+      </c>
+      <c r="B413" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C413" s="2">
+        <v>10</v>
+      </c>
+      <c r="D413" t="s">
+        <v>21</v>
+      </c>
+      <c r="E413">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" t="s">
+        <v>41</v>
+      </c>
+      <c r="B414" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C414" s="2">
+        <v>10</v>
+      </c>
+      <c r="D414" t="s">
+        <v>22</v>
+      </c>
+      <c r="E414">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" t="s">
+        <v>41</v>
+      </c>
+      <c r="B415" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C415" s="2">
+        <v>10</v>
+      </c>
+      <c r="D415" t="s">
+        <v>11</v>
+      </c>
+      <c r="E415">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" t="s">
+        <v>41</v>
+      </c>
+      <c r="B416" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C416" s="2">
+        <v>10</v>
+      </c>
+      <c r="D416" t="s">
+        <v>23</v>
+      </c>
+      <c r="E416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" t="s">
+        <v>41</v>
+      </c>
+      <c r="B417" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C417" s="2">
+        <v>10</v>
+      </c>
+      <c r="D417" t="s">
+        <v>24</v>
+      </c>
+      <c r="E417">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" t="s">
+        <v>41</v>
+      </c>
+      <c r="B418" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C418" s="2">
+        <v>11</v>
+      </c>
+      <c r="D418" t="s">
+        <v>39</v>
+      </c>
+      <c r="E418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" t="s">
+        <v>41</v>
+      </c>
+      <c r="B419" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C419" s="2">
+        <v>11</v>
+      </c>
+      <c r="D419" t="s">
+        <v>27</v>
+      </c>
+      <c r="E419">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" t="s">
+        <v>41</v>
+      </c>
+      <c r="B420" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C420" s="2">
+        <v>11</v>
+      </c>
+      <c r="D420" t="s">
+        <v>36</v>
+      </c>
+      <c r="E420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" t="s">
+        <v>41</v>
+      </c>
+      <c r="B421" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C421" s="2">
+        <v>11</v>
+      </c>
+      <c r="D421" t="s">
+        <v>42</v>
+      </c>
+      <c r="E421">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" t="s">
+        <v>41</v>
+      </c>
+      <c r="B422" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C422" s="2">
+        <v>11</v>
+      </c>
+      <c r="D422" t="s">
+        <v>49</v>
+      </c>
+      <c r="E422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" t="s">
+        <v>41</v>
+      </c>
+      <c r="B423" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C423" s="2">
+        <v>11</v>
+      </c>
+      <c r="D423" t="s">
+        <v>28</v>
+      </c>
+      <c r="E423">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" t="s">
+        <v>41</v>
+      </c>
+      <c r="B424" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C424" s="2">
+        <v>11</v>
+      </c>
+      <c r="D424" t="s">
+        <v>17</v>
+      </c>
+      <c r="E424">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" t="s">
+        <v>41</v>
+      </c>
+      <c r="B425" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C425" s="2">
+        <v>11</v>
+      </c>
+      <c r="D425" t="s">
+        <v>45</v>
+      </c>
+      <c r="E425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" t="s">
+        <v>41</v>
+      </c>
+      <c r="B426" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C426" s="2">
+        <v>11</v>
+      </c>
+      <c r="D426" t="s">
+        <v>18</v>
+      </c>
+      <c r="E426">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" t="s">
+        <v>41</v>
+      </c>
+      <c r="B427" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C427" s="2">
+        <v>11</v>
+      </c>
+      <c r="D427" t="s">
+        <v>30</v>
+      </c>
+      <c r="E427">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" t="s">
+        <v>41</v>
+      </c>
+      <c r="B428" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C428" s="2">
+        <v>11</v>
+      </c>
+      <c r="D428" t="s">
+        <v>19</v>
+      </c>
+      <c r="E428">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" t="s">
+        <v>41</v>
+      </c>
+      <c r="B429" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C429" s="2">
+        <v>11</v>
+      </c>
+      <c r="D429" t="s">
+        <v>20</v>
+      </c>
+      <c r="E429">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" t="s">
+        <v>41</v>
+      </c>
+      <c r="B430" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C430" s="2">
+        <v>11</v>
+      </c>
+      <c r="D430" t="s">
+        <v>21</v>
+      </c>
+      <c r="E430">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" t="s">
+        <v>41</v>
+      </c>
+      <c r="B431" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C431" s="2">
+        <v>11</v>
+      </c>
+      <c r="D431" t="s">
+        <v>22</v>
+      </c>
+      <c r="E431">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" t="s">
+        <v>41</v>
+      </c>
+      <c r="B432" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C432" s="2">
+        <v>11</v>
+      </c>
+      <c r="D432" t="s">
+        <v>11</v>
+      </c>
+      <c r="E432">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" t="s">
+        <v>41</v>
+      </c>
+      <c r="B433" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C433" s="2">
+        <v>11</v>
+      </c>
+      <c r="D433" t="s">
+        <v>23</v>
+      </c>
+      <c r="E433">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" t="s">
+        <v>41</v>
+      </c>
+      <c r="B434" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C434" s="2">
+        <v>11</v>
+      </c>
+      <c r="D434" t="s">
+        <v>24</v>
+      </c>
+      <c r="E434">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" t="s">
+        <v>41</v>
+      </c>
+      <c r="B435" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C435" s="2">
+        <v>11</v>
+      </c>
+      <c r="D435" t="s">
+        <v>43</v>
+      </c>
+      <c r="E435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" t="s">
+        <v>41</v>
+      </c>
+      <c r="B436" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C436" s="2">
+        <v>11</v>
+      </c>
+      <c r="D436" t="s">
+        <v>31</v>
+      </c>
+      <c r="E436">
         <v>2</v>
       </c>
     </row>

--- a/upload/procedimentos-obstetricos-2025.xlsx
+++ b/upload/procedimentos-obstetricos-2025.xlsx
@@ -496,11 +496,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A438" sqref="A438:XFD438"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="82.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
